--- a/results/FrequencyTables/26581162_sg300R.xlsx
+++ b/results/FrequencyTables/26581162_sg300R.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00220426157237326</v>
       </c>
       <c r="C2">
-        <v>0.0103092783505155</v>
+        <v>0.0191036002939015</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0337986774430566</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0352681851579721</v>
       </c>
       <c r="F2">
-        <v>0.917525773195876</v>
+        <v>0.974283614988979</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00440852314474651</v>
       </c>
       <c r="H2">
-        <v>0.948453608247423</v>
+        <v>0.880969875091844</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00587803085966201</v>
       </c>
       <c r="J2">
-        <v>0.164948453608247</v>
+        <v>0.141072740631888</v>
       </c>
       <c r="K2">
-        <v>0.0103092783505155</v>
+        <v>0.0705363703159442</v>
       </c>
       <c r="L2">
-        <v>0.123711340206186</v>
+        <v>0.0675973548861132</v>
       </c>
       <c r="M2">
-        <v>0.0103092783505155</v>
+        <v>0.0183688464364438</v>
       </c>
       <c r="N2">
-        <v>0.989690721649485</v>
+        <v>0.97722263041881</v>
       </c>
       <c r="O2">
-        <v>0.0515463917525773</v>
+        <v>0.11756061719324</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0014695077149155</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.000734753857457752</v>
       </c>
       <c r="R2">
-        <v>0.0618556701030928</v>
+        <v>0.157237325495959</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00440852314474651</v>
       </c>
       <c r="T2">
-        <v>0.938144329896907</v>
+        <v>0.863335782512858</v>
       </c>
       <c r="U2">
-        <v>0.0103092783505155</v>
+        <v>0.0661278471711976</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.0014695077149155</v>
       </c>
       <c r="W2">
-        <v>0.938144329896907</v>
+        <v>0.806759735488611</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0014695077149155</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.989690721649485</v>
+        <v>0.979426891991183</v>
       </c>
       <c r="C3">
-        <v>0.938144329896907</v>
+        <v>0.861131520940485</v>
       </c>
       <c r="D3">
-        <v>0.948453608247423</v>
+        <v>0.847171197648788</v>
       </c>
       <c r="E3">
-        <v>0.0103092783505155</v>
+        <v>0.017634092578986</v>
       </c>
       <c r="F3">
-        <v>0.0721649484536082</v>
+        <v>0.0161645848640705</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000734753857457752</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.000734753857457752</v>
       </c>
       <c r="J3">
-        <v>0.835051546391753</v>
+        <v>0.849375459221161</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000734753857457752</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.000734753857457752</v>
       </c>
       <c r="M3">
-        <v>0.958762886597938</v>
+        <v>0.938280675973549</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0014695077149155</v>
       </c>
       <c r="O3">
-        <v>0.0103092783505155</v>
+        <v>0.0360029390154298</v>
       </c>
       <c r="P3">
-        <v>0.948453608247423</v>
+        <v>0.879500367376929</v>
       </c>
       <c r="Q3">
-        <v>0.938144329896907</v>
+        <v>0.863335782512858</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000734753857457752</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00734753857457752</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.0014695077149155</v>
       </c>
       <c r="U3">
-        <v>0.0412371134020619</v>
+        <v>0.0183688464364438</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.000734753857457752</v>
       </c>
       <c r="W3">
-        <v>0.0103092783505155</v>
+        <v>0.0168993387215283</v>
       </c>
       <c r="X3">
-        <v>0.938144329896907</v>
+        <v>0.83982365907421</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,70 +613,70 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0103092783505155</v>
+        <v>0.017634092578986</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.000734753857457752</v>
       </c>
       <c r="E4">
-        <v>0.989690721649485</v>
+        <v>0.946362968405584</v>
       </c>
       <c r="F4">
-        <v>0.0103092783505155</v>
+        <v>0.00955180014695077</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.995591476855254</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0014695077149155</v>
       </c>
       <c r="I4">
-        <v>0.989690721649485</v>
+        <v>0.954445260837619</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00220426157237326</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.000734753857457752</v>
       </c>
       <c r="L4">
-        <v>0.824742268041237</v>
+        <v>0.815576781778104</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0014695077149155</v>
       </c>
       <c r="N4">
-        <v>0.0103092783505155</v>
+        <v>0.017634092578986</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00293901542983101</v>
       </c>
       <c r="P4">
-        <v>0.0515463917525773</v>
+        <v>0.118295371050698</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.0014695077149155</v>
       </c>
       <c r="R4">
-        <v>0.938144329896907</v>
+        <v>0.831006612784717</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.98677443056576</v>
       </c>
       <c r="T4">
-        <v>0.0103092783505155</v>
+        <v>0.0183688464364438</v>
       </c>
       <c r="U4">
-        <v>0.948453608247423</v>
+        <v>0.90521675238795</v>
       </c>
       <c r="V4">
-        <v>0.0103092783505155</v>
+        <v>0.017634092578986</v>
       </c>
       <c r="W4">
-        <v>0.0515463917525773</v>
+        <v>0.118295371050698</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -687,16 +687,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.000734753857457752</v>
       </c>
       <c r="C5">
-        <v>0.0515463917525773</v>
+        <v>0.119764878765614</v>
       </c>
       <c r="D5">
-        <v>0.0515463917525773</v>
+        <v>0.118295371050698</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.000734753857457752</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -705,55 +705,55 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0515463917525773</v>
+        <v>0.116825863335783</v>
       </c>
       <c r="I5">
-        <v>0.0103092783505155</v>
+        <v>0.0389419544452608</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00734753857457752</v>
       </c>
       <c r="K5">
-        <v>0.989690721649485</v>
+        <v>0.92799412196914</v>
       </c>
       <c r="L5">
-        <v>0.0515463917525773</v>
+        <v>0.116091109478325</v>
       </c>
       <c r="M5">
-        <v>0.0309278350515464</v>
+        <v>0.0418809698750918</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00367376928728876</v>
       </c>
       <c r="O5">
-        <v>0.938144329896907</v>
+        <v>0.843497428361499</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.000734753857457752</v>
       </c>
       <c r="Q5">
-        <v>0.0618556701030928</v>
+        <v>0.134459955914769</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0110213078618663</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.0014695077149155</v>
       </c>
       <c r="T5">
-        <v>0.0515463917525773</v>
+        <v>0.116825863335783</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0102865540044085</v>
       </c>
       <c r="V5">
-        <v>0.989690721649485</v>
+        <v>0.980161645848641</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0580455547391624</v>
       </c>
       <c r="X5">
-        <v>0.0618556701030928</v>
+        <v>0.158706833210874</v>
       </c>
     </row>
   </sheetData>
